--- a/solutions/microsoft/modern-workspace/m365-deployment/presales/infrastructure-costs.xlsx
+++ b/solutions/microsoft/modern-workspace/m365-deployment/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="38" t="inlineStr">
@@ -1159,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1493,7 +1493,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1587,7 +1587,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1632,7 +1632,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1769,261 +1769,36 @@
       </c>
     </row>
     <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B14" s="48" t="inlineStr">
-        <is>
-          <t>Migration Services - Email</t>
-        </is>
-      </c>
-      <c r="C14" s="48" t="inlineStr">
-        <is>
-          <t>Exchange migration 250GB (150 hours @ $200)</t>
-        </is>
-      </c>
-      <c r="D14" s="49" t="n">
-        <v>150</v>
-      </c>
-      <c r="E14" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F14" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G14" s="50" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H14" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="50" t="n">
-        <v>30000</v>
-      </c>
-      <c r="K14" s="48" t="inlineStr">
-        <is>
-          <t>Year 1 only - email migration</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="inlineStr">
-        <is>
-          <t>Migration Services - Files</t>
-        </is>
-      </c>
-      <c r="C15" s="44" t="inlineStr">
-        <is>
-          <t>SharePoint and OneDrive migration 5TB (80 hours @ $200)</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G15" s="46" t="n">
-        <v>16000</v>
-      </c>
-      <c r="H15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="46" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K15" s="44" t="inlineStr">
-        <is>
-          <t>Year 1 only - file migration</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>Security Configuration</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>Conditional Access DLP Defender setup (80 hours @ $225)</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>225</v>
-      </c>
-      <c r="G16" s="50" t="n">
-        <v>18000</v>
-      </c>
-      <c r="H16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50" t="n">
-        <v>18000</v>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>Year 1 only - security baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>Teams Deployment</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>Teams channels apps governance (40 hours @ $200)</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G17" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>Year 1 only - Teams rollout</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Training &amp; Documentation</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>Admin and user training (40 hours @ $175)</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>175</v>
-      </c>
-      <c r="G18" s="50" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>Year 1 only - knowledge transfer</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="51" t="inlineStr">
+      <c r="A14" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B19" s="52" t="n"/>
-      <c r="C19" s="52" t="n"/>
-      <c r="D19" s="52" t="n"/>
-      <c r="E19" s="52" t="n"/>
-      <c r="F19" s="52" t="n"/>
-      <c r="G19" s="53">
-        <f>SUM(G3:G18)</f>
-        <v/>
-      </c>
-      <c r="H19" s="53">
-        <f>SUM(H3:H18)</f>
-        <v/>
-      </c>
-      <c r="I19" s="53">
-        <f>SUM(I3:I18)</f>
-        <v/>
-      </c>
-      <c r="J19" s="53">
-        <f>SUM(J3:J18)</f>
-        <v/>
-      </c>
-      <c r="K19" s="52" t="n"/>
+      <c r="B14" s="52" t="n"/>
+      <c r="C14" s="52" t="n"/>
+      <c r="D14" s="52" t="n"/>
+      <c r="E14" s="52" t="n"/>
+      <c r="F14" s="52" t="n"/>
+      <c r="G14" s="53">
+        <f>SUM(G3:G13)</f>
+        <v/>
+      </c>
+      <c r="H14" s="53">
+        <f>SUM(H3:H13)</f>
+        <v/>
+      </c>
+      <c r="I14" s="53">
+        <f>SUM(I3:I13)</f>
+        <v/>
+      </c>
+      <c r="J14" s="53">
+        <f>SUM(J3:J13)</f>
+        <v/>
+      </c>
+      <c r="K14" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K19"/>
+  <autoFilter ref="A2:K14"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2104,7 +1879,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -2176,7 +1951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2272,7 +2047,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2332,69 +2107,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
